--- a/public/data/locales-Beatriz.xlsx
+++ b/public/data/locales-Beatriz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c37d41bcd3f597e/Automatización/Facturas Beatriz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierperezgarcia/invoices/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_57E215D7E8863D7BD761A074DB79100F45C10FA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B746D4D-7286-194F-8544-07B4408EBDF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B8666-B3CF-E147-9B45-7EE1BC09E030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>short_name</t>
   </si>
   <si>
-    <t>09.006.072-P</t>
-  </si>
-  <si>
     <t>euros</t>
   </si>
   <si>
@@ -86,21 +83,12 @@
     <t>MAESTRO URIARTE 1-3</t>
   </si>
   <si>
-    <t>71.460.389-X</t>
-  </si>
-  <si>
     <t>GRUPO DCT PAGAMI</t>
   </si>
   <si>
-    <t>B 37557113</t>
-  </si>
-  <si>
     <t>LUCIA MENDES MARTINS</t>
   </si>
   <si>
-    <t>09.949374-B</t>
-  </si>
-  <si>
     <t>mariagcastromr@gmail.com</t>
   </si>
   <si>
@@ -120,6 +108,18 @@
   </si>
   <si>
     <t>C/ MOISÉS DE LEON BLOQUE I PORTAL 2</t>
+  </si>
+  <si>
+    <t>09006072P</t>
+  </si>
+  <si>
+    <t>71460389X</t>
+  </si>
+  <si>
+    <t>B37557113</t>
+  </si>
+  <si>
+    <t>09949374B</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,19 +514,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -534,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>400</v>
@@ -558,21 +558,21 @@
         <v>408</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>220</v>
@@ -582,29 +582,29 @@
         <v>41.8</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">ROUND(E3*0.21,2)</f>
+        <f t="shared" ref="G3:G5" si="0">ROUND(E3*0.21,2)</f>
         <v>46.2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="1">ROUND(E3+(G3-F3),2)</f>
+        <f t="shared" ref="H3:H5" si="1">ROUND(E3+(G3-F3),2)</f>
         <v>224.4</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>350</v>
@@ -622,21 +622,21 @@
         <v>357</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>350</v>
@@ -654,7 +654,7 @@
         <v>357</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
